--- a/Results/SCS-Webgoat-NET.xlsx
+++ b/Results/SCS-Webgoat-NET.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Winter 2020\CMPUT 664\Project\Progress\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\syeda\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA077D3-A493-4335-A71B-CFBCDC7C816F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAE3B50-5FA1-4A0F-9D81-9E78F5DBE3D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{FC9F9D93-E15D-4B8A-951C-4139EBA3AF20}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="79">
   <si>
     <t>Severity</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>True Positives by SCS</t>
+  </si>
+  <si>
+    <t>False Positives</t>
+  </si>
+  <si>
+    <t>True Positives</t>
+  </si>
+  <si>
+    <t>True Negatives</t>
+  </si>
+  <si>
+    <t>False Negatives</t>
   </si>
 </sst>
 </file>
@@ -312,9 +324,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +646,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F37"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1509,20 +1522,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9831C3F-085C-44E4-BB6E-E9723936ED5E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C27" sqref="C27:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1532,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64EA30F-986A-4EA1-B33B-3D2CB7595E53}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1544,9 +1590,10 @@
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>61</v>
       </c>
@@ -1557,7 +1604,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1568,7 +1615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -1579,7 +1626,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -1590,7 +1637,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1601,7 +1648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -1612,7 +1659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1623,7 +1670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1634,7 +1681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1650,8 +1697,14 @@
       <c r="G9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1661,30 +1714,31 @@
       <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1692,7 +1746,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1700,7 +1754,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1708,7 +1762,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
